--- a/biology/Botanique/Grillage_avertisseur/Grillage_avertisseur.xlsx
+++ b/biology/Botanique/Grillage_avertisseur/Grillage_avertisseur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grillage avertisseur est un matériau à mailles larges généralement en plastique et dont la couleur indique ce qui a été enterré à l'aplomb de ce grillage.
 </t>
@@ -511,16 +523,18 @@
           <t>Couleurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe 8 couleurs différentes[1] pour signaler ce qui est enterré (en France, norme NF P98-332) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe 8 couleurs différentes pour signaler ce qui est enterré (en France, norme NF P98-332) :
 Rouge : Électricité ;
 Bleu : Eau potable ;
 Vert : Télécom/Vidéo ;
-Jaune : Gaz combustibles [2] et hydrocarbures liquides ;
+Jaune : Gaz combustibles  et hydrocarbures liquides ;
 Violet : Chauffage/Climatisation urbaine ;
 Orange : Produits Chimiques ;
-Blanc : Équipements routiers dynamiques[3] ;
+Blanc : Équipements routiers dynamiques ;
 Marron : Assainissement.
 </t>
         </is>
@@ -550,9 +564,11 @@
           <t>Installation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le grillage avertisseur doit être enterré dans une tranchée, à une distance de 20  à   30 centimètres au-dessus de ce qui est à protéger (tuyaux, câble, etc.)[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grillage avertisseur doit être enterré dans une tranchée, à une distance de 20  à   30 centimètres au-dessus de ce qui est à protéger (tuyaux, câble, etc.),.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Normes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la norme NF P98-332 "Chaussées et dépendances - Règles de distance entre les réseaux enterrés et règles de voisinage entre les réseaux et les végétaux" définit notamment les associations entre les couleurs des grillages avertisseurs et les réseaux à signaler. La norme NF EN 12613[2],[4] "Dispositifs avertisseurs à caractéristiques visuelles, en matière plastique, pour câbles et canalisations enterrés" précise les caractéristiques de ces grillages avertisseurs.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la norme NF P98-332 "Chaussées et dépendances - Règles de distance entre les réseaux enterrés et règles de voisinage entre les réseaux et les végétaux" définit notamment les associations entre les couleurs des grillages avertisseurs et les réseaux à signaler. La norme NF EN 12613, "Dispositifs avertisseurs à caractéristiques visuelles, en matière plastique, pour câbles et canalisations enterrés" précise les caractéristiques de ces grillages avertisseurs.
 </t>
         </is>
       </c>
